--- a/itr_list.xlsx
+++ b/itr_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MakeND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1421C-C3A9-4B6E-8B2C-F9937717E995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CB1A7B-2C4C-4872-8465-73D8A76532F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Фамилия</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Тищенко</t>
-  </si>
-  <si>
-    <t>Пропустить</t>
   </si>
 </sst>
 </file>
@@ -202,15 +199,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,11 +221,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,11 +248,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -510,9 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -523,324 +561,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="1">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
     <sortCondition ref="A1:A20"/>
   </sortState>
+  <conditionalFormatting sqref="D2:F20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/itr_list.xlsx
+++ b/itr_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MakeND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CB1A7B-2C4C-4872-8465-73D8A76532F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5956BC62-7CE9-4B33-B655-C0629E5CCED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/itr_list.xlsx
+++ b/itr_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MakeND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5956BC62-7CE9-4B33-B655-C0629E5CCED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8179DC-EC16-4E53-BE78-DC4669447F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5385" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/itr_list.xlsx
+++ b/itr_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MakeND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8179DC-EC16-4E53-BE78-DC4669447F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E197C2-3222-424C-B698-93BEA68B68A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11370" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/itr_list.xlsx
+++ b/itr_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\MakeND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E197C2-3222-424C-B698-93BEA68B68A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046BB1F-B398-4BC3-91A6-84963C7818A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Фамилия</t>
   </si>
@@ -45,45 +45,15 @@
     <t>Согласующий</t>
   </si>
   <si>
-    <t>Барзий</t>
-  </si>
-  <si>
-    <t>Виталий</t>
-  </si>
-  <si>
-    <t>Анатольевич</t>
-  </si>
-  <si>
-    <t>Галицын</t>
-  </si>
-  <si>
-    <t>Антон</t>
-  </si>
-  <si>
     <t>Сергеевич</t>
   </si>
   <si>
-    <t>Голованев</t>
-  </si>
-  <si>
     <t>Андрей</t>
   </si>
   <si>
-    <t>Губарев</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
     <t>Александрович</t>
   </si>
   <si>
-    <t>Губкин</t>
-  </si>
-  <si>
-    <t>Вадим</t>
-  </si>
-  <si>
     <t>Николаевич</t>
   </si>
   <si>
@@ -96,85 +66,97 @@
     <t>Юрьевич</t>
   </si>
   <si>
-    <t>Дробышев</t>
-  </si>
-  <si>
-    <t>Игоревич</t>
-  </si>
-  <si>
-    <t>Черницких</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
     <t>Михайлович</t>
   </si>
   <si>
-    <t>Чепелев</t>
-  </si>
-  <si>
     <t>Сергей</t>
   </si>
   <si>
-    <t>Красноухов</t>
-  </si>
-  <si>
     <t>Дмитрий</t>
   </si>
   <si>
     <t>Иванович</t>
   </si>
   <si>
-    <t>Жимонов</t>
-  </si>
-  <si>
     <t>Петрович</t>
   </si>
   <si>
-    <t>Труфанов</t>
-  </si>
-  <si>
-    <t>Станислав</t>
-  </si>
-  <si>
-    <t>Бородин</t>
-  </si>
-  <si>
-    <t>Викторович</t>
-  </si>
-  <si>
-    <t>Баранников</t>
-  </si>
-  <si>
     <t>Михаил</t>
   </si>
   <si>
-    <t>Анпилов</t>
-  </si>
-  <si>
-    <t>Евгений</t>
-  </si>
-  <si>
-    <t>Дрозд</t>
-  </si>
-  <si>
-    <t>Валерьевич</t>
-  </si>
-  <si>
-    <t>Клышников</t>
-  </si>
-  <si>
-    <t>Рыжих</t>
-  </si>
-  <si>
     <t>Александр</t>
   </si>
   <si>
     <t>Владимирович</t>
   </si>
   <si>
-    <t>Тищенко</t>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Сидор</t>
+  </si>
+  <si>
+    <t>Сидорович</t>
+  </si>
+  <si>
+    <t>Александров</t>
+  </si>
+  <si>
+    <t>Сергеев</t>
+  </si>
+  <si>
+    <t>Юрьев</t>
+  </si>
+  <si>
+    <t>Юрий</t>
+  </si>
+  <si>
+    <t>Андреев</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Николаев</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Владимиров</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Михайлов</t>
+  </si>
+  <si>
+    <t>Дмитриев</t>
+  </si>
+  <si>
+    <t>Дмитриевич</t>
+  </si>
+  <si>
+    <t>Никифоров</t>
+  </si>
+  <si>
+    <t>Никифор</t>
+  </si>
+  <si>
+    <t>Никифорович</t>
   </si>
 </sst>
 </file>
@@ -546,11 +528,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -582,13 +562,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -598,13 +578,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -612,17 +592,19 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -632,13 +614,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -648,13 +630,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -666,13 +648,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -682,13 +664,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -698,29 +680,31 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -730,13 +714,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -746,13 +730,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -762,13 +746,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
@@ -780,13 +764,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -794,111 +778,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
-    <sortCondition ref="A1:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
+    <sortCondition ref="A1:A14"/>
   </sortState>
-  <conditionalFormatting sqref="D2:F20">
+  <conditionalFormatting sqref="D2:F14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
